--- a/resources/experiment 2/metrics/R2/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Macroalbuminuria (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2786851492779057</v>
+        <v>0.2786851492779058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2786851492779057</v>
+        <v>0.2786851492779058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2786851492779057</v>
+        <v>0.2786851492779058</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8719204505113749</v>
+        <v>0.988328785803518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.871920341256053</v>
+        <v>0.9884497726136989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.871920341256053</v>
+        <v>0.798063248832325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8780971353766474</v>
+        <v>0.9831578472264163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8781225524698455</v>
+        <v>0.984265532266416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8781225524698455</v>
+        <v>0.7929075820522051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7166836965731088</v>
+        <v>0.8559852545989114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7166836965731088</v>
+        <v>0.8307320747187062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7166836965731088</v>
+        <v>0.7276402336670126</v>
       </c>
     </row>
   </sheetData>
